--- a/uploads/default/supplier.xlsx
+++ b/uploads/default/supplier.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhichang/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/opt/sites/bo/uploads/default/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>编码</t>
   </si>
@@ -35,9 +35,6 @@
     <t>名称</t>
   </si>
   <si>
-    <t>简称</t>
-  </si>
-  <si>
     <t>助记码</t>
   </si>
   <si>
@@ -103,6 +100,90 @@
   </si>
   <si>
     <t>禁用</t>
+  </si>
+  <si>
+    <t>电话</t>
+    <rPh sb="0" eb="1">
+      <t>dian'hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行</t>
+    <rPh sb="0" eb="1">
+      <t>kai'hu'hang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行账号</t>
+    <rPh sb="0" eb="1">
+      <t>kai'hu'hang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhang'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票接收人</t>
+    <rPh sb="0" eb="1">
+      <t>fa'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'shou'ren</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票接收人电话</t>
+    <rPh sb="0" eb="1">
+      <t>fa'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'shou'ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dian'hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简称/备注</t>
+    <rPh sb="3" eb="4">
+      <t>bei'zhu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票类型</t>
+    <rPh sb="0" eb="1">
+      <t>fa'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票邮寄地址</t>
+    <rPh sb="0" eb="1">
+      <t>fa'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -144,18 +225,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor theme="0"/>
         <bgColor indexed="8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="8"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -163,32 +244,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,125 +566,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+    <col min="14" max="14" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="4">
+        <v>40741.496388888889</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="4">
-        <v>40741.496388888889</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="7">
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="5"/>
+      <c r="T3" s="7">
         <v>42223.419105335648</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>19</v>
+      <c r="U3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
